--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141953.256632194</v>
+        <v>139431.7520416752</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>93.58753137643988</v>
       </c>
       <c r="C2" t="n">
-        <v>176.0758711911487</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>266.9096042634983</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>96.92071727838325</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,13 +874,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>110.4637346787652</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>205.1165526564925</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>105.2165173304261</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>143.8843955160137</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>79.26950464462728</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1111,7 +1111,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>87.04898341497888</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>218.5174356271575</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>79.54581243241749</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>213.0056778728019</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I13" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.10998325717014</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365925</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375744</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520996</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.41770597126533</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>139.5930054288739</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>91.89996056624759</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>169.0864095245671</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,10 +3196,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>12.35680705404102</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3433,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>26.13627195705825</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>126.4418041083155</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>185.6920487814947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1010.017151544263</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="C2" t="n">
-        <v>832.1627361996682</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1400.156483520075</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1010.017151544263</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4395,37 +4395,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.2398381699707</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>516.2398381699707</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4486,25 +4486,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1538.546405651888</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1315.567924846624</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1026.449587350461</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1026.449587350461</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>737.0324173135008</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X4" t="n">
-        <v>737.0324173135008</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>516.2398381699707</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.498902304191</v>
+        <v>681.0854746196778</v>
       </c>
       <c r="C5" t="n">
-        <v>898.5363853637798</v>
+        <v>681.0854746196778</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2456.060017965381</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.314376571206</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.733315835385</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.733315835385</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.964660565271</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.498902304191</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y5" t="n">
-        <v>1267.498902304191</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
         <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2238.100841080695</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.0018823909471</v>
+        <v>491.3876008968052</v>
       </c>
       <c r="C7" t="n">
-        <v>666.0018823909471</v>
+        <v>491.3876008968052</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786114</v>
+        <v>491.3876008968052</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962183</v>
+        <v>343.4745073144121</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>196.5845598165018</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>196.5845598165018</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4723,16 +4723,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1556.375913362752</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1359.747165522614</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1136.768684717349</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>847.6503472211868</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V7" t="n">
-        <v>847.6503472211868</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W7" t="n">
-        <v>847.6503472211868</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X7" t="n">
-        <v>847.6503472211868</v>
+        <v>673.036065727045</v>
       </c>
       <c r="Y7" t="n">
-        <v>847.6503472211868</v>
+        <v>673.036065727045</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
         <v>934.5673701373257</v>
@@ -4802,22 +4802,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3237.677555533435</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3031.699807917657</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2778.169331191494</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2778.169331191494</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2425.400675921379</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.9349176603</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.795585684488</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1565.428901185557</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1276.3260343112</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1021.641546105313</v>
       </c>
       <c r="W10" t="n">
-        <v>1175.936468090393</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="X10" t="n">
-        <v>1175.936468090393</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746419</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876672</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597603</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597603</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>264.0500279773672</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>117.1600804794569</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>117.1600804794569</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614371</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>762.547769317907</v>
       </c>
     </row>
     <row r="17">
@@ -5501,46 +5501,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.868625753638</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257311</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133953</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310022</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868278</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662391</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.29922062543</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727413</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327634</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048565</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925207</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101276</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2238.914344045922</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1949.83911739012</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1695.154629184233</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>481.447947124485</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>333.5348535420919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>186.6449060441816</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6698,28 +6698,28 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6962,22 +6962,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7123,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,61 +7400,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192832</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>224.3355197601775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>294.8344935184725</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.4490126143849</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>54.94575946518597</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>102.8214964149707</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922734</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I13" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>117.1847295890537</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,13 +23701,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516697</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>110.0033420516659</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>77.81244489841438</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>73.62417772602126</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>83.05123379926087</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>154.8900140445868</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>114.1584408891656</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>99.26785128072164</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406861</v>
+        <v>317255.8761406862</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
@@ -26323,19 +26323,19 @@
         <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="G2" t="n">
         <v>343037.3048682526</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682525</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="J2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="K2" t="n">
         <v>343037.3048682527</v>
@@ -26347,13 +26347,13 @@
         <v>343037.3048682529</v>
       </c>
       <c r="N2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="O2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="P2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343037.3048682527</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.967965428979369e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94171.38997943736</v>
+        <v>94171.38997943737</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26430,31 +26430,31 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
+        <v>9337.200356756606</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756606</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="H4" t="n">
-        <v>9337.200356756606</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756608</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="K4" t="n">
-        <v>9337.200356756603</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>9337.200356756608</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756644</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.200356756508</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-984605.0698545156</v>
+        <v>-984791.4632430542</v>
       </c>
       <c r="C6" t="n">
-        <v>119278.7060603732</v>
+        <v>119278.7060603728</v>
       </c>
       <c r="D6" t="n">
-        <v>-40142.56393751867</v>
+        <v>-40142.56393751857</v>
       </c>
       <c r="E6" t="n">
-        <v>-92834.88711976598</v>
+        <v>-92869.62504520167</v>
       </c>
       <c r="F6" t="n">
-        <v>232577.5746875891</v>
+        <v>232542.8367621533</v>
       </c>
       <c r="G6" t="n">
-        <v>232577.5746875891</v>
+        <v>232542.8367621531</v>
       </c>
       <c r="H6" t="n">
-        <v>232577.5746875885</v>
+        <v>232542.8367621533</v>
       </c>
       <c r="I6" t="n">
-        <v>232577.5746875892</v>
+        <v>232542.8367621532</v>
       </c>
       <c r="J6" t="n">
-        <v>64972.39687760668</v>
+        <v>64937.65895217078</v>
       </c>
       <c r="K6" t="n">
-        <v>232577.5746875889</v>
+        <v>232542.8367621532</v>
       </c>
       <c r="L6" t="n">
-        <v>184283.6046793983</v>
+        <v>184248.8667539625</v>
       </c>
       <c r="M6" t="n">
-        <v>147522.5467520774</v>
+        <v>147487.8088266418</v>
       </c>
       <c r="N6" t="n">
-        <v>232577.5746875891</v>
+        <v>232542.8367621533</v>
       </c>
       <c r="O6" t="n">
-        <v>232577.5746875891</v>
+        <v>232542.8367621535</v>
       </c>
       <c r="P6" t="n">
-        <v>232577.574687589</v>
+        <v>232542.8367621534</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>234.2005508218547</v>
       </c>
       <c r="C2" t="n">
-        <v>189.1970205798589</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>97.74174308335421</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>115.245920710272</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>149.5664889641905</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>18.23569806836828</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3.367113639115189</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.28806777494636</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>22.13877837319696</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.47773633174452</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>140.0031368437517</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>73.51732046378908</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-2.543347030377445e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,13 +31844,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565771</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>708.9385480032147</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
-        <v>338.6542681503486</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,28 +33737,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0567753070492</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,10 +33980,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
-        <v>451.9270028924504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067255</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>307.9814458135826</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>638.4800548179295</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>491.0077074256856</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>474.0150488837098</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
@@ -35021,22 +35021,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>630.2591755145955</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>302.9297349452394</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121327</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>566.8045140811964</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
-        <v>196.0580237059041</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>469.7150632237159</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,10 +37628,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
-        <v>320.5852908091172</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236319604</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>169.4270660337084</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>496.3460208959112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
